--- a/Parts (toPrint).xlsx
+++ b/Parts (toPrint).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Github\Hexapod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C58B58-2BBE-404E-80AD-1AC75A1F659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76A0CD-CBA2-4CA0-9312-7C1E9B7A6913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18228" yWindow="6012" windowWidth="17280" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Parts to print</t>
   </si>
@@ -39,21 +39,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>PLA_body lid</t>
-  </si>
-  <si>
-    <t>PLA_body main_bottom</t>
-  </si>
-  <si>
-    <t>PLA_body main_top</t>
-  </si>
-  <si>
-    <t>PLA_controll platform</t>
-  </si>
-  <si>
-    <t>PLA_power pack</t>
-  </si>
-  <si>
     <t>body spacer_set</t>
   </si>
   <si>
@@ -61,6 +46,33 @@
   </si>
   <si>
     <t>If you want to reprint a single part take a look at the subfolders. All 3mf's have been rotated to print in the opposit direction and have the necessary suport</t>
+  </si>
+  <si>
+    <t>body lid</t>
+  </si>
+  <si>
+    <t>body main_bottom</t>
+  </si>
+  <si>
+    <t>body main_top</t>
+  </si>
+  <si>
+    <t>controll platform</t>
+  </si>
+  <si>
+    <t>power pack</t>
+  </si>
+  <si>
+    <t>bushing_set</t>
+  </si>
+  <si>
+    <t>These add the necessary friction to supress leg chatter. You will have to try different XY Compensation values to get the exact fit that you need. I suggest you print a few with different XY Compensations before printing everything. If you have problems with bed adhesion maybe print less at once.</t>
+  </si>
+  <si>
+    <t>leg_set_mirrored</t>
+  </si>
+  <si>
+    <t>Some parts for the right and left legs are mirrored to achive symetry. You can build the same leg 6 times but that will require you to change some variables for the legs</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:F13"/>
+  <dimension ref="C4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -410,18 +422,21 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -434,7 +449,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -442,7 +457,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -450,7 +465,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -458,10 +473,29 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
